--- a/python/play/单词练习/word.xlsx
+++ b/python/play/单词练习/word.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucycore\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucycore\Desktop\python\python\play\单词练习\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="322">
   <si>
     <t>constant</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1243,6 +1243,25 @@
   </si>
   <si>
     <t>比较；对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生</t>
+  </si>
+  <si>
+    <t>发生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：单词录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止使用合并单元格！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以及特殊的符号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1324,7 +1343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1363,9 +1382,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1684,7 +1700,7 @@
   <dimension ref="A1:F230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1708,7 +1724,9 @@
         <v>0</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1722,7 +1740,9 @@
         <v>1</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1736,7 +1756,9 @@
         <v>2</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2653,7 +2675,7 @@
       <c r="A69" s="4">
         <v>69</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="8" t="s">
         <v>228</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -2667,7 +2689,9 @@
       <c r="A70" s="4">
         <v>70</v>
       </c>
-      <c r="B70" s="13"/>
+      <c r="B70" s="8" t="s">
+        <v>318</v>
+      </c>
       <c r="C70" s="1" t="s">
         <v>68</v>
       </c>
@@ -2679,7 +2703,9 @@
       <c r="A71" s="4">
         <v>71</v>
       </c>
-      <c r="B71" s="13"/>
+      <c r="B71" s="8" t="s">
+        <v>317</v>
+      </c>
       <c r="C71" s="1" t="s">
         <v>69</v>
       </c>
@@ -3321,7 +3347,7 @@
       <c r="A117" s="4">
         <v>117</v>
       </c>
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -3335,7 +3361,9 @@
       <c r="A118" s="4">
         <v>118</v>
       </c>
-      <c r="B118" s="13"/>
+      <c r="B118" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="C118" s="1" t="s">
         <v>114</v>
       </c>
@@ -3991,7 +4019,7 @@
       <c r="A165" s="4">
         <v>165</v>
       </c>
-      <c r="B165" s="13" t="s">
+      <c r="B165" s="8" t="s">
         <v>286</v>
       </c>
       <c r="C165" s="3" t="s">
@@ -4005,7 +4033,9 @@
       <c r="A166" s="4">
         <v>166</v>
       </c>
-      <c r="B166" s="13"/>
+      <c r="B166" s="8" t="s">
+        <v>286</v>
+      </c>
       <c r="C166" s="1" t="s">
         <v>159</v>
       </c>
@@ -4416,11 +4446,6 @@
       <c r="B230" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="B117:B118"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.16" right="0.16" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
